--- a/db/accdb/models/etc/templates/reports/ReportBase.xlsx
+++ b/db/accdb/models/etc/templates/reports/ReportBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetX\db\accdb\etc\templates\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetX\db\accdb\models\etc\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA99EAA-495E-439E-B460-DF4D957C1F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37AFF39-B261-4534-8993-586B496144A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3383C72F-90D9-4608-B812-D376E454F9CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3383C72F-90D9-4608-B812-D376E454F9CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Data " sheetId="1" r:id="rId1"/>
@@ -26,12 +26,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -40,14 +74,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Source Code Pro"/>
+      <name val="JetBrains Mono"/>
       <family val="3"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Consolas"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,16 +112,199 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -87,7 +312,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFF0F0F0"/>
         </patternFill>
       </fill>
       <border>
@@ -117,23 +342,289 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="12"/>
+        <color theme="3"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color theme="3"/>
+        <name val="JetBrains Mono"/>
+        <family val="3"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="Budget Execution Data Table" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Budget Execution Data Table" pivot="0" count="2" xr9:uid="{19BC63BC-F683-48A9-8135-CF7F957823CC}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="3" defaultTableStyle="BudgetExecutionReportTable" defaultPivotStyle="BudgetExecutionPivotTable">
+    <tableStyle name="BudgetExecutionPivotTable" table="0" count="2" xr9:uid="{3C62A9F3-175A-459A-B232-03E215FD7AC5}">
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+    </tableStyle>
+    <tableStyle name="BudgetExecutionReportSlicer" pivot="0" table="0" count="10" xr9:uid="{ABA869D6-D34F-4CD3-8BA2-D55329F17CEA}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="BudgetExecutionReportTable" pivot="0" count="2" xr9:uid="{19BC63BC-F683-48A9-8135-CF7F957823CC}">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FFFAFAFA"/>
-      <color rgb="FFF4F4F4"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFF0F0F0"/>
+      <color rgb="FFDCDCDC"/>
+      <color rgb="FFC8C8C8"/>
+      <color rgb="FF8EA9DB"/>
+      <color rgb="FFB8B8B8"/>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FF858585"/>
+      <color rgb="FF666666"/>
+      <color rgb="FF343434"/>
+      <color rgb="FF606060"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <color theme="2"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="2"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <color rgb="FFF0F0F0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FFF0F0F0"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="12"/>
+            <color theme="0"/>
+            <name val="JetBrains Mono"/>
+            <family val="3"/>
+            <scheme val="major"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="4" tint="-0.24994659260841701"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color theme="0"/>
+            </left>
+            <right style="thin">
+              <color theme="0"/>
+            </right>
+            <top style="thin">
+              <color theme="0"/>
+            </top>
+            <bottom style="thin">
+              <color theme="0"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="12"/>
+            <color theme="0"/>
+            <name val="JetBrains Mono"/>
+            <family val="3"/>
+            <scheme val="major"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="4" tint="-0.24994659260841701"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="11"/>
+            <color theme="2"/>
+            <name val="Source Code Pro"/>
+            <family val="3"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="2"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="11"/>
+            <color theme="3"/>
+            <name val="Source Code Pro"/>
+            <family val="3"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="4" tint="0.39994506668294322"/>
+            </patternFill>
+          </fill>
+          <border>
+            <left style="thin">
+              <color auto="1"/>
+            </left>
+            <right style="thin">
+              <color auto="1"/>
+            </right>
+            <top style="thin">
+              <color auto="1"/>
+            </top>
+            <bottom style="thin">
+              <color auto="1"/>
+            </bottom>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="11"/>
+            <color theme="2"/>
+            <name val="Source Code Pro"/>
+            <family val="3"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="2"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="10"/>
+            <color theme="3" tint="0.39991454817346722"/>
+            <name val="Source Code Pro"/>
+            <family val="3"/>
+            <scheme val="minor"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+            </patternFill>
+          </fill>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="BudgetExecutionReportSlicer">
+        <x14:slicerStyle name="BudgetExecutionReportSlicer">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -163,20 +654,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
+                <a:ea typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+                <a:cs typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1000"/>
+              <a:rPr lang="en-US"/>
               <a:t>Budget Execution</a:t>
             </a:r>
           </a:p>
@@ -201,16 +692,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -224,10 +715,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34252669014137954"/>
-          <c:y val="0.230897020225413"/>
-          <c:w val="0.34489571161576654"/>
-          <c:h val="0.68886914536752419"/>
+          <c:x val="0.22238875731496563"/>
+          <c:y val="0.16205637338810905"/>
+          <c:w val="0.37049890019638909"/>
+          <c:h val="0.68159705580280727"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -382,9 +873,13 @@
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -414,16 +909,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+              <a:cs typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -443,7 +938,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="bg2"/>
     </a:solidFill>
     <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -460,7 +955,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="800">
+          <a:latin typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
+          <a:ea typeface="Hack" panose="020B0609030202020204" pitchFamily="49" charset="0"/>
+          <a:cs typeface="JetBrains Mono" panose="02000009000000000000" pitchFamily="49" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -468,9 +967,11 @@
   <c:printSettings>
     <c:headerFooter>
       <c:oddHeader>&amp;L&amp;G</c:oddHeader>
+      <c:oddFooter>&amp;R&amp;G</c:oddFooter>
     </c:headerFooter>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1" l="0.7" r="0.7" t="1" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
+    <c:legacyDrawingHF r:id="rId3"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1014,15 +1515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1052,21 +1553,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01A0C403-C7DC-427B-A7C5-9DFDEAC4E09E}" name="Table13" displayName="Table13" ref="A27:K30" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A27:K30" xr:uid="{01A0C403-C7DC-427B-A7C5-9DFDEAC4E09E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{BBEFAD22-1A5C-4F5A-8A67-F0EC68B8E8B2}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4E28DBAA-A030-4EBC-B095-0C59E92AFE07}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BD77C412-E0F5-4454-90EA-FA285401E435}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{1E586356-601D-4402-9824-DAF0AE62FE77}" name="Column4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{7A52F0D5-241A-4384-8DFB-1A501638A59F}" name="Column5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DF782D9A-11FA-4482-86A8-71AA47A62789}" name="Column6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{0BFC8767-DFC1-4FD6-91B2-CB875E2F9EAE}" name="Column7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D7305DE4-8F54-4788-9C60-AF5963B23181}" name="Column8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C13C4367-B295-407B-800E-83DDEA08C2E8}" name="Column9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{868120B5-5942-459F-B568-9394EC2D66A4}" name="Column10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{EC392706-741A-4F89-9986-950D49D1AE29}" name="Column11" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="BudgetExecutionReportTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Budget Execution">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="BudgetExecution">
   <a:themeElements>
-    <a:clrScheme name="BudgetExecutionSpreadsheet">
+    <a:clrScheme name="BudgetExecutionDarkMode">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="0F0F0F"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="343434"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="F2F2F2"/>
+        <a:srgbClr val="343434"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D8D8D8"/>
+        <a:srgbClr val="FAFAFA"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1093,9 +1614,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="BudgetExecutionSpreadsheet">
+    <a:fontScheme name="BudgetExecution">
       <a:majorFont>
-        <a:latin typeface="Roboto"/>
+        <a:latin typeface="JetBrains Mono"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
@@ -1257,522 +1778,522 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627501EA-D633-4236-8671-FA506A9B99B2}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.7109375" style="1"/>
+    <col min="1" max="16384" width="9.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0" right="0" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;CBUDGET EXECUTION</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"+,Regular"&amp;12BUDGET EXECUTION</oddHeader>
     <oddFooter>&amp;R&amp;G</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
@@ -1781,17 +2302,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128C0F64-3E9D-4DCC-A6A3-F2DA51D0A1DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A27:K30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData>
+    <row r="27" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0" right="0" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
@@ -1799,5 +2395,8 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>